--- a/config_file.xlsx
+++ b/config_file.xlsx
@@ -1,67 +1,179 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erez/Documents/Project_B/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB00FF0-B544-2547-A823-392CAE3423ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="942" yWindow="936" windowWidth="21672" windowHeight="10956" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="940" yWindow="940" windowWidth="21680" windowHeight="10960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="hyperparameters" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="generator_parameters" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="counters" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="hyperparameters" sheetId="1" r:id="rId1"/>
+    <sheet name="generator_parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="counters" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>step_size</t>
+  </si>
+  <si>
+    <t>days_in_episode</t>
+  </si>
+  <si>
+    <t>episodes_in_batch</t>
+  </si>
+  <si>
+    <t>n_updates_per_iteration</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>clip</t>
+  </si>
+  <si>
+    <t>render</t>
+  </si>
+  <si>
+    <t>render_every_i</t>
+  </si>
+  <si>
+    <t>trains</t>
+  </si>
+  <si>
+    <t>stations</t>
+  </si>
+  <si>
+    <t>t_alight_per_person</t>
+  </si>
+  <si>
+    <t>t_board_per_person</t>
+  </si>
+  <si>
+    <t>platform_arrivals_per_t</t>
+  </si>
+  <si>
+    <t>alight_fraction</t>
+  </si>
+  <si>
+    <t>number_of_carts</t>
+  </si>
+  <si>
+    <t>km_between_stations</t>
+  </si>
+  <si>
+    <t>speed_kmh</t>
+  </si>
+  <si>
+    <t>stop_t</t>
+  </si>
+  <si>
+    <t>tmin</t>
+  </si>
+  <si>
+    <t>train_capacity</t>
+  </si>
+  <si>
+    <t>platform_capacity</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>generate_new</t>
+  </si>
+  <si>
+    <t>load_index</t>
+  </si>
+  <si>
+    <t>history_counter</t>
+  </si>
+  <si>
+    <t>starts from 1</t>
+  </si>
+  <si>
+    <t>when deleting folders should return it to 1 manually</t>
+  </si>
+  <si>
+    <t>iteration_number</t>
+  </si>
+  <si>
+    <t>User must check trains stations compatibility to the history it would like to load</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFAA4926"/>
       <name val="Arial Unicode MS"/>
-      <color rgb="FFAA4926"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Arial Unicode MS"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <sz val="10"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -80,90 +192,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -487,175 +540,143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="17.6171875" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="32.76171875" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.1" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Default</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>step_size</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:4" ht="14" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>300</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>300</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>days_in_episode</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>episodes_in_batch</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>n_updates_per_iteration</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:4" ht="16">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>lr</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>0.0003</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="6" spans="1:4" ht="16">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>0.99</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>clip</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:4" ht="16">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>render</t>
-        </is>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>render_every_i</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>iteration_number</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="n"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -663,203 +684,159 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="20.234375" customWidth="1" min="2" max="2"/>
-    <col width="63.234375" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="63.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.1" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Default</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>trains</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:4" ht="14" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>stations</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:4" ht="16">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>t_alight_per_person</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:4" ht="16">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>t_board_per_person</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:4" ht="16">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>platform_arrivals_per_t</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:4" ht="16">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>alight_fraction</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:4" ht="16">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
         <v>0.4</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>number_of_carts</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:4" ht="16">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>km_between_stations</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:4" ht="16">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
         <v>30</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>speed_kmh</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:4" ht="16">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
         <v>100</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>stop_t</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:4" ht="16">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>tmin</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:4" ht="16">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
         <v>180</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>train_capacity</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:4" ht="16">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
         <v>10000</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>platform_capacity</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:4" ht="16">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
         <v>100000</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>var</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:4" ht="16">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>generate_new</t>
-        </is>
+    <row r="16" spans="1:4" ht="16">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>load_index</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
         <v>1</v>
       </c>
     </row>
@@ -870,63 +847,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="13.37890625" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.1" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>history_counter</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>starts from 1</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>when deleting folders should return it to 1 manually</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>User must check trains stations compatibility to the history it would like to load</t>
-        </is>
+    <row r="1" spans="1:6" ht="14" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="F3" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_file.xlsx
+++ b/config_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erez/Documents/Project_B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB00FF0-B544-2547-A823-392CAE3423ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86B508D-1B81-3B4E-AAE5-891A8960825B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="940" windowWidth="21680" windowHeight="10960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14000" yWindow="9560" windowWidth="21680" windowHeight="10960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hyperparameters" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,18 +543,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14" customHeight="1">
+    <row r="1" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -579,7 +579,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -595,15 +595,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -611,7 +611,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -619,7 +619,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -627,7 +627,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -643,39 +643,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
     </row>
   </sheetData>
@@ -687,18 +687,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="3" max="3" width="63.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14" customHeight="1">
+    <row r="1" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -728,7 +728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -736,7 +736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -752,7 +752,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -760,7 +760,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -768,7 +768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -776,7 +776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -784,7 +784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -800,7 +800,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -808,7 +808,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -816,7 +816,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -854,12 +854,12 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14" customHeight="1">
+    <row r="1" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -881,7 +881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F3" s="6" t="s">
         <v>33</v>
       </c>

--- a/config_file.xlsx
+++ b/config_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erez/Documents/Project_B/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erez/PycharmProjects/Project_B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86B508D-1B81-3B4E-AAE5-891A8960825B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FC750D-A50E-1141-9C2A-6E9C6D77D757}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14000" yWindow="9560" windowWidth="21680" windowHeight="10960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16720" yWindow="3220" windowWidth="21680" windowHeight="10960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hyperparameters" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -600,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -648,7 +648,7 @@
         <v>32</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -687,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
